--- a/data/trans_orig/Predimed_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>33331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24373</v>
+        <v>23871</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45577</v>
+        <v>45150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.104945123076221</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0767377860146512</v>
+        <v>0.07515779351857918</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1435005586442241</v>
+        <v>0.1421557414292183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -762,19 +762,19 @@
         <v>31671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24693</v>
+        <v>24138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40929</v>
+        <v>41069</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1003569120732424</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07824517151786274</v>
+        <v>0.07648853756428502</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1296933212468473</v>
+        <v>0.130136211671404</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -783,19 +783,19 @@
         <v>65002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53956</v>
+        <v>52644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79962</v>
+        <v>79361</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1026583647658637</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08521342402798211</v>
+        <v>0.08314177676488071</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1262850156005703</v>
+        <v>0.1253359127291367</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>284277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272031</v>
+        <v>272458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293235</v>
+        <v>293737</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8950548769237791</v>
+        <v>0.8950548769237789</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8564994413557762</v>
+        <v>0.8578442585707819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.923262213985349</v>
+        <v>0.9248422064814208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>480</v>
@@ -833,19 +833,19 @@
         <v>283910</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>274652</v>
+        <v>274512</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290888</v>
+        <v>291443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8996430879267576</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8703066787531526</v>
+        <v>0.8698637883285958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9217548284821374</v>
+        <v>0.9235114624357149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>772</v>
@@ -854,19 +854,19 @@
         <v>568187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>553227</v>
+        <v>553828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>579233</v>
+        <v>580545</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8973416352341363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8737149843994295</v>
+        <v>0.8746640872708632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.914786575972018</v>
+        <v>0.9168582232351193</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>30508</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19403</v>
+        <v>20129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48035</v>
+        <v>46050</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06709920243758925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04267403756210998</v>
+        <v>0.04427065815116511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1056471441678891</v>
+        <v>0.1012823248609542</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -979,19 +979,19 @@
         <v>37716</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28428</v>
+        <v>28331</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48983</v>
+        <v>49916</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0771659422997187</v>
+        <v>0.07716594229971868</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05816286021424921</v>
+        <v>0.05796503131795152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1002188255157255</v>
+        <v>0.1021269058054701</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -1000,19 +1000,19 @@
         <v>68224</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53630</v>
+        <v>53876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87555</v>
+        <v>87616</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0723144434171455</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05684567162018575</v>
+        <v>0.0571069444303625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09280505304169151</v>
+        <v>0.09286996518878947</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>424163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406636</v>
+        <v>408621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>435268</v>
+        <v>434542</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9329007975624106</v>
+        <v>0.9329007975624107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8943528558321104</v>
+        <v>0.8987176751390457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9573259624378899</v>
+        <v>0.955729341848835</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>599</v>
@@ -1050,19 +1050,19 @@
         <v>451044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>439777</v>
+        <v>438844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>460332</v>
+        <v>460429</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9228340577002814</v>
+        <v>0.9228340577002813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8997811744842744</v>
+        <v>0.89787309419453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9418371397857507</v>
+        <v>0.9420349686820485</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>905</v>
@@ -1071,19 +1071,19 @@
         <v>875206</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>855875</v>
+        <v>855814</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>889800</v>
+        <v>889554</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9276855565828545</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9071949469583084</v>
+        <v>0.9071300348112105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9431543283798142</v>
+        <v>0.9428930555696375</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>81650</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68678</v>
+        <v>68811</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96199</v>
+        <v>96185</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2776471282753121</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2335373805457995</v>
+        <v>0.2339904118389491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3271194879479178</v>
+        <v>0.3270731125800219</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>153</v>
@@ -1196,19 +1196,19 @@
         <v>98358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84544</v>
+        <v>85158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110367</v>
+        <v>112099</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2978881792706445</v>
+        <v>0.2978881792706446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2560513339704932</v>
+        <v>0.257908749079362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3342572700238969</v>
+        <v>0.3395047462631572</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>253</v>
@@ -1217,19 +1217,19 @@
         <v>180008</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161315</v>
+        <v>159359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199973</v>
+        <v>200396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2883530205943411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2584084096309733</v>
+        <v>0.2552748450242682</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.320333952717106</v>
+        <v>0.3210129121798954</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>212428</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>197879</v>
+        <v>197893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225400</v>
+        <v>225267</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7223528717246879</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6728805120520822</v>
+        <v>0.6729268874199776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7664626194542006</v>
+        <v>0.766009588161051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>344</v>
@@ -1267,19 +1267,19 @@
         <v>231827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219818</v>
+        <v>218086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245641</v>
+        <v>245027</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7021118207293553</v>
+        <v>0.7021118207293554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6657427299761032</v>
+        <v>0.660495253736843</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7439486660295069</v>
+        <v>0.742091250920638</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -1288,19 +1288,19 @@
         <v>444255</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>424290</v>
+        <v>423867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>462948</v>
+        <v>464904</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7116469794056589</v>
+        <v>0.7116469794056587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6796660472828939</v>
+        <v>0.6789870878201044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7415915903690267</v>
+        <v>0.7447251549757318</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>116107</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95197</v>
+        <v>94608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136931</v>
+        <v>137995</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4051863673226597</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3322139465554714</v>
+        <v>0.330160264775492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4778548452602757</v>
+        <v>0.4815681474202068</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>188</v>
@@ -1413,19 +1413,19 @@
         <v>133550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116315</v>
+        <v>117351</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151419</v>
+        <v>151802</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3964096235200303</v>
+        <v>0.3964096235200302</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3452521385586395</v>
+        <v>0.3483271222221146</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4494466441390559</v>
+        <v>0.450584913268798</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -1434,19 +1434,19 @@
         <v>249658</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223183</v>
+        <v>222296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>277352</v>
+        <v>277288</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4004436134384752</v>
+        <v>0.4004436134384753</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3579792875839526</v>
+        <v>0.3565556099037937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4448635647999943</v>
+        <v>0.4447618308760503</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>170446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149622</v>
+        <v>148558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>191356</v>
+        <v>191945</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5948136326773403</v>
+        <v>0.5948136326773402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5221451547397248</v>
+        <v>0.5184318525797932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6677860534445291</v>
+        <v>0.6698397352245082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -1484,19 +1484,19 @@
         <v>203350</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>185481</v>
+        <v>185098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>220585</v>
+        <v>219549</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6035903764799699</v>
+        <v>0.6035903764799698</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5505533558609441</v>
+        <v>0.5494150867312022</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6547478614413608</v>
+        <v>0.6516728777778855</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>442</v>
@@ -1505,19 +1505,19 @@
         <v>373795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>346101</v>
+        <v>346165</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400270</v>
+        <v>401157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5995563865615249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5551364352000058</v>
+        <v>0.5552381691239497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6420207124160474</v>
+        <v>0.6434443900962062</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>40797</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31750</v>
+        <v>31303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52038</v>
+        <v>51424</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2037326515835337</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1585551228963564</v>
+        <v>0.1563215376970903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2598686002170414</v>
+        <v>0.256804604059158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -1630,19 +1630,19 @@
         <v>69879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59002</v>
+        <v>60416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81168</v>
+        <v>80885</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3132266341662236</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2644710995941089</v>
+        <v>0.2708115598385816</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3638307731752504</v>
+        <v>0.3625594146775205</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -1651,19 +1651,19 @@
         <v>110676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97993</v>
+        <v>97421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127406</v>
+        <v>126165</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2614342654354534</v>
+        <v>0.2614342654354535</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2314767815745065</v>
+        <v>0.2301237636269287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3009541731667711</v>
+        <v>0.2980217537659394</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>159450</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148209</v>
+        <v>148823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168497</v>
+        <v>168944</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7962673484164662</v>
+        <v>0.7962673484164663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7401313997829586</v>
+        <v>0.7431953959408418</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8414448771036436</v>
+        <v>0.8436784623029097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>339</v>
@@ -1701,19 +1701,19 @@
         <v>153215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141926</v>
+        <v>142209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164092</v>
+        <v>162678</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6867733658337765</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6361692268247496</v>
+        <v>0.6374405853224795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7355289004058911</v>
+        <v>0.7291884401614185</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>554</v>
@@ -1722,19 +1722,19 @@
         <v>312664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>295934</v>
+        <v>297175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>325347</v>
+        <v>325919</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7385657345645467</v>
+        <v>0.7385657345645465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6990458268332287</v>
+        <v>0.7019782462340607</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7685232184254934</v>
+        <v>0.7698762363730715</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>39897</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29993</v>
+        <v>30314</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50577</v>
+        <v>50647</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1487590867260672</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1118305802503626</v>
+        <v>0.1130293358790383</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1885822258801934</v>
+        <v>0.1888420128917699</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1847,19 +1847,19 @@
         <v>24979</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18607</v>
+        <v>18226</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32670</v>
+        <v>33324</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0956153529530215</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07122363232556378</v>
+        <v>0.06976586816655372</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1250568711837947</v>
+        <v>0.1275582247905823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -1868,19 +1868,19 @@
         <v>64876</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53625</v>
+        <v>54583</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78391</v>
+        <v>80666</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1225361105748259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1012869014534155</v>
+        <v>0.1030956971036202</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.148063724181359</v>
+        <v>0.1523602344916399</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>228299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217619</v>
+        <v>217549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238203</v>
+        <v>237882</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8512409132739327</v>
+        <v>0.8512409132739328</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8114177741198064</v>
+        <v>0.8111579871082297</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8881694197496375</v>
+        <v>0.8869706641209616</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>410</v>
@@ -1918,19 +1918,19 @@
         <v>236266</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228575</v>
+        <v>227921</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242638</v>
+        <v>243019</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9043846470469785</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8749431288162053</v>
+        <v>0.8724417752094177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9287763676744362</v>
+        <v>0.9302341318334462</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>719</v>
@@ -1939,19 +1939,19 @@
         <v>464565</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>451050</v>
+        <v>448775</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>475816</v>
+        <v>474858</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8774638894251742</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8519362758186411</v>
+        <v>0.8476397655083601</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8987130985465845</v>
+        <v>0.8969043028963797</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>208492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>180911</v>
+        <v>182616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>233257</v>
+        <v>236894</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3094127711315818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2684804214828571</v>
+        <v>0.2710112606346944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3461652754422146</v>
+        <v>0.3515627376059701</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>292</v>
@@ -2064,19 +2064,19 @@
         <v>223874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>201312</v>
+        <v>199933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>248591</v>
+        <v>246953</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3037574324979629</v>
+        <v>0.3037574324979628</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2731450778526907</v>
+        <v>0.2712741870099285</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3372937214596815</v>
+        <v>0.3350711509676154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>478</v>
@@ -2085,19 +2085,19 @@
         <v>432366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>399124</v>
+        <v>396879</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>473814</v>
+        <v>467519</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3064584660893293</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2828969570945346</v>
+        <v>0.2813052110792343</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.33583683753361</v>
+        <v>0.3313744626566193</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>465340</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>440575</v>
+        <v>436938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>492921</v>
+        <v>491216</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6905872288684182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6538347245577854</v>
+        <v>0.6484372623940298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7315195785171429</v>
+        <v>0.7289887393653056</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>627</v>
@@ -2135,19 +2135,19 @@
         <v>513142</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>488425</v>
+        <v>490063</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>535704</v>
+        <v>537083</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6962425675020372</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6627062785403182</v>
+        <v>0.6649288490323845</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7268549221473094</v>
+        <v>0.7287258129900713</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1005</v>
@@ -2156,19 +2156,19 @@
         <v>978481</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>937033</v>
+        <v>943328</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1011723</v>
+        <v>1013968</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6935415339106706</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.66416316246639</v>
+        <v>0.6686255373433806</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7171030429054656</v>
+        <v>0.7186947889207658</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>26693</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17361</v>
+        <v>17692</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37743</v>
+        <v>38138</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03412911485113671</v>
+        <v>0.03412911485113672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02219759813008764</v>
+        <v>0.02262041319568998</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04825829740879836</v>
+        <v>0.04876372697770798</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2281,19 +2281,19 @@
         <v>44160</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33386</v>
+        <v>33293</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57132</v>
+        <v>56496</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05393442469044911</v>
+        <v>0.05393442469044914</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04077541812856619</v>
+        <v>0.04066232092969928</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06977721966476956</v>
+        <v>0.06900109399981545</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -2302,19 +2302,19 @@
         <v>70853</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55559</v>
+        <v>56189</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>87356</v>
+        <v>87536</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04425859116850266</v>
+        <v>0.04425859116850265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03470510044908182</v>
+        <v>0.03509873758265634</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05456766112067665</v>
+        <v>0.05468006794868406</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>755414</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>744364</v>
+        <v>743969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764746</v>
+        <v>764415</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9658708851488632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9517417025912019</v>
+        <v>0.9512362730222924</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9778024018699124</v>
+        <v>0.9773795868043101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>989</v>
@@ -2352,19 +2352,19 @@
         <v>774615</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>761643</v>
+        <v>762279</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>785389</v>
+        <v>785482</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9460655753095508</v>
+        <v>0.9460655753095509</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9302227803352303</v>
+        <v>0.9309989060001845</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9592245818714337</v>
+        <v>0.9593376790703007</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1709</v>
@@ -2373,19 +2373,19 @@
         <v>1530028</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1513525</v>
+        <v>1513345</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1545322</v>
+        <v>1544692</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9557414088314975</v>
+        <v>0.9557414088314974</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9454323388793237</v>
+        <v>0.9453199320513157</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9652948995509183</v>
+        <v>0.9649012624173436</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>577475</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>530862</v>
+        <v>530162</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>626888</v>
+        <v>632006</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1762049522524151</v>
+        <v>0.176204952252415</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1619818452644344</v>
+        <v>0.1617682454718691</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1912824407906903</v>
+        <v>0.1928439616915051</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>987</v>
@@ -2498,19 +2498,19 @@
         <v>664187</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>625876</v>
+        <v>625142</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>709868</v>
+        <v>707981</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1891432948173653</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1782333375836077</v>
+        <v>0.1780243308393723</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2021520911359051</v>
+        <v>0.2016148370559475</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1559</v>
@@ -2519,19 +2519,19 @@
         <v>1241662</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1180706</v>
+        <v>1181721</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1306025</v>
+        <v>1306473</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1828973555378529</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1739184650229608</v>
+        <v>0.1740681097043225</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1923780378109735</v>
+        <v>0.192444072712786</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2699816</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2650403</v>
+        <v>2645285</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2746429</v>
+        <v>2747129</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8237950477475849</v>
+        <v>0.8237950477475852</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8087175592093095</v>
+        <v>0.807156038308494</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8380181547355652</v>
+        <v>0.8382317545281305</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4078</v>
@@ -2569,19 +2569,19 @@
         <v>2847367</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2801686</v>
+        <v>2803573</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2885678</v>
+        <v>2886412</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8108567051826348</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.797847908864095</v>
+        <v>0.7983851629440524</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8217666624163923</v>
+        <v>0.8219756691606278</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6683</v>
@@ -2590,19 +2590,19 @@
         <v>5547183</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5482820</v>
+        <v>5482372</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5608139</v>
+        <v>5607124</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8171026444621471</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8076219621890268</v>
+        <v>0.807555927287214</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8260815349770394</v>
+        <v>0.8259318902956774</v>
       </c>
     </row>
     <row r="30">
